--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,6 +855,131 @@
       </c>
       <c r="Y4" t="n">
         <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-08-25 10:01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14,79</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>69</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1084,13 +1209,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B60042A7-7F33-4835-9092-8E16B056DBA6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A29550A-C2E5-4117-B465-89AB0BF99AC8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1D2657A-A910-4406-8053-623C0C578296}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B06D42AB-148F-4B4E-923C-9040BF9C5597}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DF156A6-1659-4C86-AD41-3DEDC21CBD58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA525D98-BCEE-4417-A8DC-C0DC782CB628}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -1026,4 +1026,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{364EDEE0-181F-41CD-9AB5-08C4639FBFC9}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B888F31E-6648-47AD-8D13-51881008550D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBEB377D-615B-43E0-9F82-2254BECB97CB}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -1129,4 +1129,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC6DE710-00DE-442E-B490-36C319E5A94D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59D2083E-1BAD-43BC-B3CA-EB500DE6BCB4}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{029562CA-34F0-405D-AF45-8A1264D714B4}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -1232,4 +1232,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C02CA450-217B-4A56-9B9F-FB017D7044E1}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1815AC4D-C741-4370-AD24-7D540693176A}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68339367-6A9F-41EA-94EC-34553065E4E5}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -1335,4 +1335,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13003904-4DFD-4C0F-9C6A-89A49A8CA927}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9415E441-5F6E-45C5-B600-28474D17AE00}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D89450-B912-493D-935B-5A5048F1334D}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1332,240 +1332,110 @@
         <v>27</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08-29 05:25</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14,79</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>69</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14,79</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>69</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7,80</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>33</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>45,26</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>25</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>41</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>79</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>30</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>7</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>7</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>5,62</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13003904-4DFD-4C0F-9C6A-89A49A8CA927}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9415E441-5F6E-45C5-B600-28474D17AE00}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9D89450-B912-493D-935B-5A5048F1334D}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -1438,4 +1438,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B7BAA39-D459-4E15-856B-4B27B17A2451}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188EDECA-37CA-4752-BD6E-F345920742D2}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B92059F-DB1F-4747-8E9F-6B01E2087862}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -3512,4 +3512,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C246FE0-EC79-4E6A-9A35-83A7D8C94272}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03C14BA6-12CB-46C6-9185-BAE87323D8BA}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8B45274-0AED-4202-8F04-137110E5A7FE}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -3907,4 +3907,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C62090D-49EF-49B2-98C9-A7DE01D80D77}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B986C5C-FE7E-4437-A69B-ABD0946E80B8}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52F37920-EE3A-4B1D-A4A7-CB1CC70D2BBD}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -4302,4 +4302,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B113A0F-9542-421E-B378-5221EBAADA56}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF1092FC-00EC-47D2-919B-77ECC615E5CA}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37FD2103-92F1-492A-8303-A2CB30C8DF4C}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -4697,4 +4697,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{983E42A7-4D3F-4F73-BBC6-6C25EAF7785F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3120187-80C1-447E-BFB5-4228498C83DC}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D4E1B7A-6E35-42B7-ABA1-A2C6BF68DF4E}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -5882,4 +5882,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2213DDCC-731E-432C-ABCC-379105595430}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A75CB903-9A9F-45BF-B0C3-2966F9543741}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07CEA227-CBE0-427D-8D90-1D5CD5202955}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -6277,4 +6277,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541F1F3-729B-43F8-BB51-ED5429412859}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{688EA59D-1BCF-4EE9-A8DA-9A5FE8C76C84}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AC33C29-4A37-4E05-A425-A89754AA7599}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -505,7 +505,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,6 +2418,109 @@
         <v>27</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-09-09 04:26</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>14,11</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>69</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14,11</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>69</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7,88</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>33</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>41,99</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>41</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>79</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>31</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>6</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>7</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>7</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>6</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2429,7 +2532,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3382,6 +3485,79 @@
         <v>27</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>2025-09-09 04:30</t>
+        </is>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>36.29</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I13" s="13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="L13" s="13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M13" s="14" t="n">
+        <v>69</v>
+      </c>
+      <c r="N13" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="O13" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="P13" s="14" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="14" t="n">
+        <v>79</v>
+      </c>
+      <c r="R13" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="S13" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="U13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="V13" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="W13" s="14" t="n">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3393,7 +3569,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4346,6 +4522,79 @@
         <v>27</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>2025-09-09 04:30</t>
+        </is>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>41.99</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I13" s="13" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="L13" s="13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M13" s="14" t="n">
+        <v>69</v>
+      </c>
+      <c r="N13" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="O13" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="P13" s="14" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="14" t="n">
+        <v>79</v>
+      </c>
+      <c r="R13" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="S13" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="U13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="V13" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="W13" s="14" t="n">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4357,7 +4606,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5310,6 +5559,79 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>2025-09-09 04:30</t>
+        </is>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>36.29</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I13" s="13" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="L13" s="13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M13" s="14" t="n">
+        <v>58</v>
+      </c>
+      <c r="N13" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="O13" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="P13" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="R13" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="S13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5321,7 +5643,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6274,240 +6596,80 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>2025-09-09 04:30</t>
+        </is>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>37.15</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I13" s="13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>8.890000000000001</v>
+      </c>
+      <c r="L13" s="13" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M13" s="14" t="n">
+        <v>58</v>
+      </c>
+      <c r="N13" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="O13" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="P13" s="14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="R13" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="S13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541F1F3-729B-43F8-BB51-ED5429412859}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{688EA59D-1BCF-4EE9-A8DA-9A5FE8C76C84}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AC33C29-4A37-4E05-A425-A89754AA7599}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -6672,4 +6672,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC8A589-0C9C-4FC3-A0C8-BC1517C6EDE8}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7C5470-3D32-4A69-A789-CEAC245A7305}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90951EC5-6620-4C9E-8662-315207479874}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -505,7 +505,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2521,6 +2521,109 @@
         <v>27</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-09-10 03:24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14,41</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>69</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14,41</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>69</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7,93</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>33</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>42,59</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>40</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>79</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>31</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>6</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>7</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>7</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>4,96</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>6</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2532,7 +2635,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3558,6 +3661,79 @@
         <v>27</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>2025-09-10 03:28</t>
+        </is>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="E14" s="13" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="13" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I14" s="13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K14" s="13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L14" s="13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M14" s="14" t="n">
+        <v>69</v>
+      </c>
+      <c r="N14" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="O14" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="P14" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="14" t="n">
+        <v>79</v>
+      </c>
+      <c r="R14" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="S14" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T14" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="U14" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="V14" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="W14" s="14" t="n">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3569,7 +3745,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4595,6 +4771,79 @@
         <v>27</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>2025-09-10 03:28</t>
+        </is>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>42.59</v>
+      </c>
+      <c r="E14" s="13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H14" s="13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I14" s="13" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K14" s="13" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="L14" s="13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M14" s="14" t="n">
+        <v>69</v>
+      </c>
+      <c r="N14" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="O14" s="14" t="n">
+        <v>25</v>
+      </c>
+      <c r="P14" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="14" t="n">
+        <v>79</v>
+      </c>
+      <c r="R14" s="14" t="n">
+        <v>31</v>
+      </c>
+      <c r="S14" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T14" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="U14" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="V14" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="W14" s="14" t="n">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4606,7 +4855,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5632,6 +5881,79 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>2025-09-10 03:28</t>
+        </is>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E14" s="13" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H14" s="13" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I14" s="13" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K14" s="13" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="L14" s="13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M14" s="14" t="n">
+        <v>59</v>
+      </c>
+      <c r="N14" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="O14" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="P14" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="14" t="n">
+        <v>26</v>
+      </c>
+      <c r="R14" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="S14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W14" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5643,7 +5965,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6669,240 +6991,80 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>2025-09-10 03:28</t>
+        </is>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>32.27</v>
+      </c>
+      <c r="E14" s="13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H14" s="13" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I14" s="13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K14" s="13" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="L14" s="13" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M14" s="14" t="n">
+        <v>59</v>
+      </c>
+      <c r="N14" s="14" t="n">
+        <v>33</v>
+      </c>
+      <c r="O14" s="14" t="n">
+        <v>21</v>
+      </c>
+      <c r="P14" s="14" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="14" t="n">
+        <v>26</v>
+      </c>
+      <c r="R14" s="14" t="n">
+        <v>20</v>
+      </c>
+      <c r="S14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W14" s="14" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC8A589-0C9C-4FC3-A0C8-BC1517C6EDE8}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D7C5470-3D32-4A69-A789-CEAC245A7305}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90951EC5-6620-4C9E-8662-315207479874}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="EPC"/>
@@ -2591,11 +2591,11 @@
   </sheetPr>
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -5229,7 +5229,7 @@
   </sheetPr>
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8082,13 +8082,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3D4A20C-0419-4E59-9DD3-13226BBBA480}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C54A5934-E9D8-4919-BD23-1D9BDE5D70C6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC6C2666-68DE-4F40-B159-DB78F63F8968}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C27383E-16E7-4E54-951D-EB39EC3FD40C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84E49692-D7A1-4EFB-AE48-CE2302A988C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D92FF41-C16F-468C-909C-511123EF2B7A}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -9276,4 +9276,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8F3322C-10B7-4A27-A054-9DCECD690423}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C3E3F6A-3633-4E1E-BEA9-0162B06DC99F}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21CB6E33-C33C-415D-8611-E8C2756B7799}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2733,6 +2733,109 @@
         <v>27</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-09-12 03:23</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14,20</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>69</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14,20</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>69</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7,75</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>33</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>43,39</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1,10</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>40</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>79</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>31</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>6</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>7</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>7</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>4,89</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>6</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="Y22" t="n">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2744,7 +2847,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4820,6 +4923,79 @@
         <v>27</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="14" t="inlineStr">
+        <is>
+          <t>2025-09-12 03:27</t>
+        </is>
+      </c>
+      <c r="B24" s="15" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C24" s="15" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="E24" s="15" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F24" s="15" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G24" s="15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="15" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I24" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K24" s="15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="L24" s="15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M24" s="16" t="n">
+        <v>69</v>
+      </c>
+      <c r="N24" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="O24" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="P24" s="16" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="16" t="n">
+        <v>79</v>
+      </c>
+      <c r="R24" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="S24" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="T24" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="U24" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="V24" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="W24" s="16" t="n">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4831,7 +5007,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6003,6 +6179,79 @@
         <v>27</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="14" t="inlineStr">
+        <is>
+          <t>2025-09-12 03:27</t>
+        </is>
+      </c>
+      <c r="B16" s="15" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="D16" s="15" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H16" s="15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I16" s="15" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J16" s="15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K16" s="15" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="L16" s="15" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M16" s="16" t="n">
+        <v>69</v>
+      </c>
+      <c r="N16" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="O16" s="16" t="n">
+        <v>25</v>
+      </c>
+      <c r="P16" s="16" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q16" s="16" t="n">
+        <v>79</v>
+      </c>
+      <c r="R16" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="S16" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="T16" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="U16" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="V16" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="W16" s="16" t="n">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6014,7 +6263,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8090,6 +8339,79 @@
         <v>25</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="14" t="inlineStr">
+        <is>
+          <t>2025-09-12 03:27</t>
+        </is>
+      </c>
+      <c r="B24" s="15" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="C24" s="15" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="E24" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G24" s="15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H24" s="15" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I24" s="15" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J24" s="15" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K24" s="15" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="L24" s="15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M24" s="16" t="n">
+        <v>59</v>
+      </c>
+      <c r="N24" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="O24" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="P24" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="R24" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="S24" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U24" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="W24" s="16" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8101,7 +8423,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9273,240 +9595,80 @@
         <v>25</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="14" t="inlineStr">
+        <is>
+          <t>2025-09-12 03:27</t>
+        </is>
+      </c>
+      <c r="B16" s="15" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="D16" s="15" t="n">
+        <v>41.42</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H16" s="15" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I16" s="15" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="J16" s="15" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K16" s="15" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="L16" s="15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M16" s="16" t="n">
+        <v>59</v>
+      </c>
+      <c r="N16" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="O16" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="P16" s="16" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="16" t="n">
+        <v>26</v>
+      </c>
+      <c r="R16" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="S16" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="W16" s="16" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
-    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
-    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8F3322C-10B7-4A27-A054-9DCECD690423}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C3E3F6A-3633-4E1E-BEA9-0162B06DC99F}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21CB6E33-C33C-415D-8611-E8C2756B7799}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -9671,4 +9671,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72E482A8-E15F-4B26-9CBF-93400A15FC02}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B635C9E-274B-47EC-A0A6-68865B5FBC69}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B443FD9-DAFD-4699-9075-47F63B584C85}"/>
 </file>
--- a/data/data_epc_finance.xlsx
+++ b/data/data_epc_finance.xlsx
@@ -9854,4 +9854,237 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100DB01342258A1A745B47F9C99664AF188" ma:contentTypeVersion="12" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="8114bd84d3a5165b4c66ed2c2743aa89">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="539ad97a-6b2b-4269-bca7-8a198619080b" xmlns:ns3="004c6c9b-1317-41f5-a636-9e571d3fdbb7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29ce435fe48c85833e267b818f15a09" ns2:_="" ns3:_="">
+    <xsd:import namespace="539ad97a-6b2b-4269-bca7-8a198619080b"/>
+    <xsd:import namespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="539ad97a-6b2b-4269-bca7-8a198619080b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkeringar" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="85dc3c56-23da-4698-8d10-6f1766830db0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="004c6c9b-1317-41f5-a636-9e571d3fdbb7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{ab5def52-f90d-4735-9dbc-cc5211594556}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="004c6c9b-1317-41f5-a636-9e571d3fdbb7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Innehållstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Rubrik"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="539ad97a-6b2b-4269-bca7-8a198619080b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="004c6c9b-1317-41f5-a636-9e571d3fdbb7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95AD19D-F1DF-4041-B269-3476B54D4469}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{619805AF-9E3F-46DA-8290-DE378A8676AA}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD491D5-12E8-4556-B344-032241B2F755}"/>
 </file>